--- a/Sensor height vs suspended object data.xlsx
+++ b/Sensor height vs suspended object data.xlsx
@@ -336,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A9:B181"/>
+  <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B6001"/>
@@ -344,12 +344,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0.05</v>
+      </c>
+      <c r="B2">
+        <v>1.6866960286653991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0.1</v>
+      </c>
+      <c r="B3">
+        <v>1.6733920573307985</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0.15</v>
+      </c>
+      <c r="B4">
+        <v>1.6600880859961977</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0.2</v>
+      </c>
+      <c r="B5">
+        <v>1.6467841146615971</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0.25</v>
+      </c>
+      <c r="B6">
+        <v>1.6334801433269963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0.3</v>
+      </c>
+      <c r="B7">
+        <v>1.6201761719923955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0.35</v>
+      </c>
+      <c r="B8">
+        <v>1.6068722006577949</v>
+      </c>
+    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>2.3935682293231944</v>
+        <v>1.5935682293231941</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -357,7 +421,7 @@
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>2.3802642579885935</v>
+        <v>1.5802642579885933</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -365,7 +429,7 @@
         <v>0.5</v>
       </c>
       <c r="B11">
-        <v>2.3669602866539927</v>
+        <v>1.5669602866539927</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -373,7 +437,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="B12">
-        <v>2.3536563153193919</v>
+        <v>1.5536563153193919</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -381,7 +445,7 @@
         <v>0.6</v>
       </c>
       <c r="B13">
-        <v>2.3403523439847911</v>
+        <v>1.5403523439847913</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -389,7 +453,7 @@
         <v>0.65</v>
       </c>
       <c r="B14">
-        <v>2.3270483726501903</v>
+        <v>1.5270483726501904</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -397,7 +461,7 @@
         <v>0.7</v>
       </c>
       <c r="B15">
-        <v>2.3137444013155899</v>
+        <v>1.5137444013155896</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -405,7 +469,7 @@
         <v>0.75</v>
       </c>
       <c r="B16">
-        <v>2.3004404299809891</v>
+        <v>1.500440429980989</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -413,7 +477,7 @@
         <v>0.8</v>
       </c>
       <c r="B17">
-        <v>2.2871364586463883</v>
+        <v>1.4871364586463882</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -421,7 +485,7 @@
         <v>0.85</v>
       </c>
       <c r="B18">
-        <v>2.2738324873117874</v>
+        <v>1.4738324873117876</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -429,7 +493,7 @@
         <v>0.9</v>
       </c>
       <c r="B19">
-        <v>2.2605285159771871</v>
+        <v>1.4605285159771868</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -437,7 +501,7 @@
         <v>0.95</v>
       </c>
       <c r="B20">
-        <v>2.2472245446425863</v>
+        <v>1.447224544642586</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -445,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>2.2339205733079854</v>
+        <v>1.4339205733079854</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,7 +517,7 @@
         <v>1.05</v>
       </c>
       <c r="B22">
-        <v>2.2206166019733846</v>
+        <v>1.4206166019733846</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -461,7 +525,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="B23">
-        <v>2.2073126306387838</v>
+        <v>1.407312630638784</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -469,7 +533,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="B24">
-        <v>2.194008659304183</v>
+        <v>1.3940086593041832</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -477,7 +541,7 @@
         <v>1.2</v>
       </c>
       <c r="B25">
-        <v>2.1807046879695826</v>
+        <v>1.3807046879695823</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -485,7 +549,7 @@
         <v>1.25</v>
       </c>
       <c r="B26">
-        <v>2.1674007166349818</v>
+        <v>1.3674007166349817</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -493,7 +557,7 @@
         <v>1.3</v>
       </c>
       <c r="B27">
-        <v>2.154096745300381</v>
+        <v>1.3540967453003809</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -501,7 +565,7 @@
         <v>1.35</v>
       </c>
       <c r="B28">
-        <v>2.1407927739657802</v>
+        <v>1.3407927739657801</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -509,7 +573,7 @@
         <v>1.4</v>
       </c>
       <c r="B29">
-        <v>2.1274888026311798</v>
+        <v>1.3274888026311795</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -517,7 +581,7 @@
         <v>1.45</v>
       </c>
       <c r="B30">
-        <v>2.114184831296579</v>
+        <v>1.3141848312965787</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -525,7 +589,7 @@
         <v>1.5</v>
       </c>
       <c r="B31">
-        <v>2.1008808599619782</v>
+        <v>1.3008808599619779</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -533,7 +597,7 @@
         <v>1.55</v>
       </c>
       <c r="B32">
-        <v>2.0875768886273773</v>
+        <v>1.2875768886273773</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -541,7 +605,7 @@
         <v>1.6</v>
       </c>
       <c r="B33">
-        <v>2.0742729172927765</v>
+        <v>1.2742729172927765</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -549,7 +613,7 @@
         <v>1.65</v>
       </c>
       <c r="B34">
-        <v>2.0609689459581757</v>
+        <v>1.2609689459581759</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -557,7 +621,7 @@
         <v>1.7</v>
       </c>
       <c r="B35">
-        <v>2.0476649746235753</v>
+        <v>1.2476649746235751</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -565,7 +629,7 @@
         <v>1.75</v>
       </c>
       <c r="B36">
-        <v>2.0343610032889745</v>
+        <v>1.2343610032889742</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -573,7 +637,7 @@
         <v>1.8</v>
       </c>
       <c r="B37">
-        <v>2.0210570319543737</v>
+        <v>1.2210570319543737</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +645,7 @@
         <v>1.85</v>
       </c>
       <c r="B38">
-        <v>2.0077530606197729</v>
+        <v>1.2077530606197728</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -589,7 +653,7 @@
         <v>1.9</v>
       </c>
       <c r="B39">
-        <v>1.9944490892851723</v>
+        <v>1.1944490892851722</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -597,7 +661,7 @@
         <v>1.95</v>
       </c>
       <c r="B40">
-        <v>1.9811451179505715</v>
+        <v>1.1811451179505714</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -605,7 +669,7 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>1.9678411466159709</v>
+        <v>1.1678411466159706</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -613,7 +677,7 @@
         <v>2.0499999999999998</v>
       </c>
       <c r="B42">
-        <v>1.9545371752813701</v>
+        <v>1.15453717528137</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -621,7 +685,7 @@
         <v>2.1</v>
       </c>
       <c r="B43">
-        <v>1.9412332039467692</v>
+        <v>1.1412332039467692</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -629,7 +693,7 @@
         <v>2.15</v>
       </c>
       <c r="B44">
-        <v>1.9279292326121686</v>
+        <v>1.1279292326121686</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -637,7 +701,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B45">
-        <v>1.9146252612775678</v>
+        <v>1.1146252612775678</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -645,7 +709,7 @@
         <v>2.25</v>
       </c>
       <c r="B46">
-        <v>1.9013212899429672</v>
+        <v>1.101321289942967</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
@@ -653,7 +717,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B47">
-        <v>1.8880173186083664</v>
+        <v>1.0880173186083664</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
@@ -661,7 +725,7 @@
         <v>2.35</v>
       </c>
       <c r="B48">
-        <v>1.8747133472737656</v>
+        <v>1.0747133472737656</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -669,7 +733,7 @@
         <v>2.4</v>
       </c>
       <c r="B49">
-        <v>1.8614093759391648</v>
+        <v>1.061409375939165</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -677,7 +741,7 @@
         <v>2.4500000000000002</v>
       </c>
       <c r="B50">
-        <v>1.8481054046045642</v>
+        <v>1.0481054046045641</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -685,7 +749,7 @@
         <v>2.5</v>
       </c>
       <c r="B51">
-        <v>1.8348014332699636</v>
+        <v>1.0348014332699633</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -693,7 +757,7 @@
         <v>2.5499999999999998</v>
       </c>
       <c r="B52">
-        <v>1.8214974619353628</v>
+        <v>1.0214974619353627</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +765,7 @@
         <v>2.6</v>
       </c>
       <c r="B53">
-        <v>1.808193490600762</v>
+        <v>1.0081934906007619</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +773,7 @@
         <v>2.65</v>
       </c>
       <c r="B54">
-        <v>1.7948895192661611</v>
+        <v>0.9948895192661612</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,7 +781,7 @@
         <v>2.7</v>
       </c>
       <c r="B55">
-        <v>1.7815855479315603</v>
+        <v>0.98158554793156039</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +789,7 @@
         <v>2.75</v>
       </c>
       <c r="B56">
-        <v>1.7682815765969599</v>
+        <v>0.96828157659695979</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -733,7 +797,7 @@
         <v>2.8</v>
       </c>
       <c r="B57">
-        <v>1.7549776052623591</v>
+        <v>0.95497760526235909</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +805,7 @@
         <v>2.85</v>
       </c>
       <c r="B58">
-        <v>1.7416736339277583</v>
+        <v>0.94167363392775827</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -749,7 +813,7 @@
         <v>2.9</v>
       </c>
       <c r="B59">
-        <v>1.7283696625931575</v>
+        <v>0.92836966259315756</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +821,7 @@
         <v>2.95</v>
       </c>
       <c r="B60">
-        <v>1.7150656912585567</v>
+        <v>0.91506569125855675</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +829,7 @@
         <v>3</v>
       </c>
       <c r="B61">
-        <v>1.7017617199239561</v>
+        <v>0.90176171992395604</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +837,7 @@
         <v>3.05</v>
       </c>
       <c r="B62">
-        <v>1.6884577485893555</v>
+        <v>0.88845774858935544</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,7 +845,7 @@
         <v>3.1</v>
       </c>
       <c r="B63">
-        <v>1.6751537772547547</v>
+        <v>0.87515377725475463</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -789,7 +853,7 @@
         <v>3.15</v>
       </c>
       <c r="B64">
-        <v>1.6618498059201539</v>
+        <v>0.86184980592015392</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
@@ -797,7 +861,7 @@
         <v>3.2</v>
       </c>
       <c r="B65">
-        <v>1.648545834585553</v>
+        <v>0.8485458345855531</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -805,7 +869,7 @@
         <v>3.25</v>
       </c>
       <c r="B66">
-        <v>1.6352418632509524</v>
+        <v>0.8352418632509524</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -813,7 +877,7 @@
         <v>3.3</v>
       </c>
       <c r="B67">
-        <v>1.6219378919163518</v>
+        <v>0.8219378919163518</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -821,7 +885,7 @@
         <v>3.35</v>
       </c>
       <c r="B68">
-        <v>1.608633920581751</v>
+        <v>0.80863392058175099</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -829,7 +893,7 @@
         <v>3.4</v>
       </c>
       <c r="B69">
-        <v>1.5953299492471502</v>
+        <v>0.79532994924715028</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -837,7 +901,7 @@
         <v>3.45</v>
       </c>
       <c r="B70">
-        <v>1.5820259779125494</v>
+        <v>0.78202597791254946</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -845,7 +909,7 @@
         <v>3.5</v>
       </c>
       <c r="B71">
-        <v>1.5687220065779488</v>
+        <v>0.76872200657794876</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -853,7 +917,7 @@
         <v>3.55</v>
       </c>
       <c r="B72">
-        <v>1.5554180352433482</v>
+        <v>0.75541803524334805</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -861,7 +925,7 @@
         <v>3.6</v>
       </c>
       <c r="B73">
-        <v>1.5421140639087474</v>
+        <v>0.74211406390874735</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -869,7 +933,7 @@
         <v>3.65</v>
       </c>
       <c r="B74">
-        <v>1.5288100925741466</v>
+        <v>0.72881009257414664</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -877,7 +941,7 @@
         <v>3.7</v>
       </c>
       <c r="B75">
-        <v>1.5155061212395458</v>
+        <v>0.71550612123954582</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,7 +949,7 @@
         <v>3.75</v>
       </c>
       <c r="B76">
-        <v>1.5022021499049452</v>
+        <v>0.70220214990494512</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -893,7 +957,7 @@
         <v>3.8</v>
       </c>
       <c r="B77">
-        <v>1.4888981785703446</v>
+        <v>0.68889817857034452</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -901,7 +965,7 @@
         <v>3.85</v>
       </c>
       <c r="B78">
-        <v>1.4755942072357437</v>
+        <v>0.6755942072357437</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -909,7 +973,7 @@
         <v>3.9</v>
       </c>
       <c r="B79">
-        <v>1.4622902359011429</v>
+        <v>0.66229023590114289</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -917,7 +981,7 @@
         <v>3.95</v>
       </c>
       <c r="B80">
-        <v>1.4489862645665421</v>
+        <v>0.64898626456654207</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
@@ -925,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="B81">
-        <v>1.4356822932319415</v>
+        <v>0.63568229323194148</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
@@ -933,7 +997,7 @@
         <v>4.05</v>
       </c>
       <c r="B82">
-        <v>1.4223783218973409</v>
+        <v>0.62237832189734088</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -941,7 +1005,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B83">
-        <v>1.4090743505627401</v>
+        <v>0.60907435056274006</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -949,7 +1013,7 @@
         <v>4.1500000000000004</v>
       </c>
       <c r="B84">
-        <v>1.3957703792281393</v>
+        <v>0.59577037922813925</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -957,7 +1021,7 @@
         <v>4.2</v>
       </c>
       <c r="B85">
-        <v>1.3824664078935385</v>
+        <v>0.58246640789353843</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
@@ -965,7 +1029,7 @@
         <v>4.25</v>
       </c>
       <c r="B86">
-        <v>1.3691624365589379</v>
+        <v>0.56916243655893783</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
@@ -973,7 +1037,7 @@
         <v>4.3</v>
       </c>
       <c r="B87">
-        <v>1.3558584652243373</v>
+        <v>0.55585846522433724</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
@@ -981,7 +1045,7 @@
         <v>4.3499999999999996</v>
       </c>
       <c r="B88">
-        <v>1.3425544938897365</v>
+        <v>0.54255449388973642</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
@@ -989,7 +1053,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B89">
-        <v>1.3292505225551356</v>
+        <v>0.52925052255513561</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -997,7 +1061,7 @@
         <v>4.45</v>
       </c>
       <c r="B90">
-        <v>1.3159465512205348</v>
+        <v>0.51594655122053479</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -1005,7 +1069,7 @@
         <v>4.5</v>
       </c>
       <c r="B91">
-        <v>1.3026425798859342</v>
+        <v>0.50264257988593419</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -1013,7 +1077,7 @@
         <v>4.55</v>
       </c>
       <c r="B92">
-        <v>1.2893386085513334</v>
+        <v>0.48933860855133338</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -1021,7 +1085,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="B93">
-        <v>1.2760346372167328</v>
+        <v>0.47603463721673278</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -1029,7 +1093,7 @@
         <v>4.6500000000000004</v>
       </c>
       <c r="B94">
-        <v>1.262730665882132</v>
+        <v>0.46273066588213196</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -1037,7 +1101,7 @@
         <v>4.7</v>
       </c>
       <c r="B95">
-        <v>1.2494266945475312</v>
+        <v>0.44942669454753115</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -1045,7 +1109,7 @@
         <v>4.75</v>
       </c>
       <c r="B96">
-        <v>1.2361227232129306</v>
+        <v>0.43612272321293055</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -1053,7 +1117,7 @@
         <v>4.8</v>
       </c>
       <c r="B97">
-        <v>1.2228187518783298</v>
+        <v>0.42281875187832973</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
@@ -1061,7 +1125,7 @@
         <v>4.8499999999999996</v>
       </c>
       <c r="B98">
-        <v>1.2095147805437292</v>
+        <v>0.40951478054372914</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -1069,7 +1133,7 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="B99">
-        <v>1.1962108092091284</v>
+        <v>0.39621080920912832</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -1077,7 +1141,7 @@
         <v>4.95</v>
       </c>
       <c r="B100">
-        <v>1.1829068378745276</v>
+        <v>0.38290683787452751</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -1085,7 +1149,7 @@
         <v>5</v>
       </c>
       <c r="B101">
-        <v>1.169602866539927</v>
+        <v>0.36960286653992691</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
@@ -1093,7 +1157,7 @@
         <v>5.05</v>
       </c>
       <c r="B102">
-        <v>1.1562988952053261</v>
+        <v>0.35629889520532609</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
@@ -1101,7 +1165,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="B103">
-        <v>1.1429949238707255</v>
+        <v>0.3429949238707255</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
@@ -1109,7 +1173,7 @@
         <v>5.15</v>
       </c>
       <c r="B104">
-        <v>1.1296909525361245</v>
+        <v>0.32969095253612446</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
@@ -1117,7 +1181,7 @@
         <v>5.2</v>
       </c>
       <c r="B105">
-        <v>1.1163869812015239</v>
+        <v>0.31638698120152386</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
@@ -1125,7 +1189,7 @@
         <v>5.25</v>
       </c>
       <c r="B106">
-        <v>1.1030830098669233</v>
+        <v>0.30308300986692327</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
@@ -1133,7 +1197,7 @@
         <v>5.3</v>
       </c>
       <c r="B107">
-        <v>1.0897790385323225</v>
+        <v>0.28977903853232245</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
@@ -1141,7 +1205,7 @@
         <v>5.35</v>
       </c>
       <c r="B108">
-        <v>1.0764750671977219</v>
+        <v>0.27647506719772186</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
@@ -1149,7 +1213,7 @@
         <v>5.4</v>
       </c>
       <c r="B109">
-        <v>1.0631710958631209</v>
+        <v>0.26317109586312082</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
@@ -1157,7 +1221,7 @@
         <v>5.45</v>
       </c>
       <c r="B110">
-        <v>1.0498671245285203</v>
+        <v>0.24986712452852022</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
@@ -1165,7 +1229,7 @@
         <v>5.5</v>
       </c>
       <c r="B111">
-        <v>1.0365631531939197</v>
+        <v>0.23656315319391963</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
@@ -1173,7 +1237,7 @@
         <v>5.55</v>
       </c>
       <c r="B112">
-        <v>1.0232591818593189</v>
+        <v>0.22325918185931881</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
@@ -1181,7 +1245,7 @@
         <v>5.6</v>
       </c>
       <c r="B113">
-        <v>1.0099552105247183</v>
+        <v>0.20995521052471822</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
@@ -1189,7 +1253,7 @@
         <v>5.65</v>
       </c>
       <c r="B114">
-        <v>0.99665123919011722</v>
+        <v>0.19665123919011718</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
@@ -1197,7 +1261,7 @@
         <v>5.7</v>
       </c>
       <c r="B115">
-        <v>0.98334726785551663</v>
+        <v>0.18334726785551658</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
@@ -1205,7 +1269,7 @@
         <v>5.75</v>
       </c>
       <c r="B116">
-        <v>0.97004329652091603</v>
+        <v>0.17004329652091599</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -1213,7 +1277,7 @@
         <v>5.8</v>
       </c>
       <c r="B117">
-        <v>0.95673932518631521</v>
+        <v>0.15673932518631517</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
@@ -1221,7 +1285,7 @@
         <v>5.85</v>
       </c>
       <c r="B118">
-        <v>0.94343535385171462</v>
+        <v>0.14343535385171458</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
@@ -1229,7 +1293,7 @@
         <v>5.9</v>
       </c>
       <c r="B119">
-        <v>0.93013138251711358</v>
+        <v>0.13013138251711354</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
@@ -1237,7 +1301,7 @@
         <v>5.95</v>
       </c>
       <c r="B120">
-        <v>0.91682741118251299</v>
+        <v>0.11682741118251294</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
@@ -1245,487 +1309,7 @@
         <v>6</v>
       </c>
       <c r="B121">
-        <v>0.90352343984791217</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122">
-        <v>6.05</v>
-      </c>
-      <c r="B122">
-        <v>0.89021946851331157</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123">
-        <v>6.1</v>
-      </c>
-      <c r="B123">
-        <v>0.87691549717871098</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124">
-        <v>6.15</v>
-      </c>
-      <c r="B124">
-        <v>0.86361152584410994</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125">
-        <v>6.2</v>
-      </c>
-      <c r="B125">
-        <v>0.85030755450950934</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126">
-        <v>6.25</v>
-      </c>
-      <c r="B126">
-        <v>0.83700358317490853</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127">
-        <v>6.3</v>
-      </c>
-      <c r="B127">
-        <v>0.82369961184030793</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128">
-        <v>6.35</v>
-      </c>
-      <c r="B128">
-        <v>0.81039564050570734</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129">
-        <v>6.4</v>
-      </c>
-      <c r="B129">
-        <v>0.7970916691711063</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130">
-        <v>6.45</v>
-      </c>
-      <c r="B130">
-        <v>0.7837876978365057</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131">
-        <v>6.5</v>
-      </c>
-      <c r="B131">
-        <v>0.77048372650190489</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132">
-        <v>6.55</v>
-      </c>
-      <c r="B132">
-        <v>0.75717975516730429</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133">
-        <v>6.6</v>
-      </c>
-      <c r="B133">
-        <v>0.7438757838327037</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134">
-        <v>6.65</v>
-      </c>
-      <c r="B134">
-        <v>0.73057181249810266</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135">
-        <v>6.7</v>
-      </c>
-      <c r="B135">
-        <v>0.71726784116350206</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136">
-        <v>6.75</v>
-      </c>
-      <c r="B136">
-        <v>0.70396386982890125</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137">
-        <v>6.8</v>
-      </c>
-      <c r="B137">
-        <v>0.69065989849430065</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138">
-        <v>6.85</v>
-      </c>
-      <c r="B138">
-        <v>0.67735592715970006</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139">
-        <v>6.9</v>
-      </c>
-      <c r="B139">
-        <v>0.66405195582509902</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140">
-        <v>6.95</v>
-      </c>
-      <c r="B140">
-        <v>0.65074798449049842</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141">
-        <v>7</v>
-      </c>
-      <c r="B141">
-        <v>0.6374440131558976</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142">
-        <v>7.05</v>
-      </c>
-      <c r="B142">
-        <v>0.62414004182129701</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143">
-        <v>7.1</v>
-      </c>
-      <c r="B143">
-        <v>0.61083607048669619</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144">
-        <v>7.15</v>
-      </c>
-      <c r="B144">
-        <v>0.59753209915209538</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
-        <v>7.2</v>
-      </c>
-      <c r="B145">
-        <v>0.58422812781749478</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
-        <v>7.25</v>
-      </c>
-      <c r="B146">
-        <v>0.57092415648289396</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
-        <v>7.3</v>
-      </c>
-      <c r="B147">
-        <v>0.55762018514829337</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
-        <v>7.35</v>
-      </c>
-      <c r="B148">
-        <v>0.54431621381369255</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
-        <v>7.4</v>
-      </c>
-      <c r="B149">
-        <v>0.53101224247909173</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
-        <v>7.45</v>
-      </c>
-      <c r="B150">
-        <v>0.51770827114449114</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
-        <v>7.5</v>
-      </c>
-      <c r="B151">
-        <v>0.50440429980989032</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152">
-        <v>7.55</v>
-      </c>
-      <c r="B152">
-        <v>0.4911003284752895</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153">
-        <v>7.6</v>
-      </c>
-      <c r="B153">
-        <v>0.47779635714068913</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154">
-        <v>7.65</v>
-      </c>
-      <c r="B154">
-        <v>0.46449238580608787</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155">
-        <v>7.7</v>
-      </c>
-      <c r="B155">
-        <v>0.4511884144714875</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156">
-        <v>7.75</v>
-      </c>
-      <c r="B156">
-        <v>0.43788444313688668</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157">
-        <v>7.8</v>
-      </c>
-      <c r="B157">
-        <v>0.42458047180228586</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158">
-        <v>7.85</v>
-      </c>
-      <c r="B158">
-        <v>0.41127650046768549</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159">
-        <v>7.9</v>
-      </c>
-      <c r="B159">
-        <v>0.39797252913308423</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160">
-        <v>7.95</v>
-      </c>
-      <c r="B160">
-        <v>0.38466855779848386</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161">
-        <v>8</v>
-      </c>
-      <c r="B161">
-        <v>0.37136458646388304</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="B162">
-        <v>0.35806061512928222</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163">
-        <v>8.1</v>
-      </c>
-      <c r="B163">
-        <v>0.34475664379468185</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164">
-        <v>8.15</v>
-      </c>
-      <c r="B164">
-        <v>0.33145267246008059</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="B165">
-        <v>0.31814870112548022</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166">
-        <v>8.25</v>
-      </c>
-      <c r="B166">
-        <v>0.3048447297908794</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="B167">
-        <v>0.29154075845627858</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168">
-        <v>8.35</v>
-      </c>
-      <c r="B168">
-        <v>0.27823678712167821</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169">
-        <v>8.4</v>
-      </c>
-      <c r="B169">
-        <v>0.26493281578707695</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="B170">
-        <v>0.25162884445247657</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171">
-        <v>8.5</v>
-      </c>
-      <c r="B171">
-        <v>0.23832487311787576</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172">
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="B172">
-        <v>0.22502090178327494</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173">
-        <v>8.6</v>
-      </c>
-      <c r="B173">
-        <v>0.21171693044867457</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174">
-        <v>8.65</v>
-      </c>
-      <c r="B174">
-        <v>0.19841295911407331</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="B175">
-        <v>0.18510898777947293</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>8.75</v>
-      </c>
-      <c r="B176">
-        <v>0.17180501644487212</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="B177">
-        <v>0.1585010451102713</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178">
-        <v>8.85</v>
-      </c>
-      <c r="B178">
-        <v>0.14519707377567093</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179">
-        <v>8.9</v>
-      </c>
-      <c r="B179">
-        <v>0.13189310244106967</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180">
-        <v>8.9499999999999993</v>
-      </c>
-      <c r="B180">
-        <v>0.11858913110646929</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181">
-        <v>9</v>
-      </c>
-      <c r="B181">
-        <v>0.10528515977186848</v>
+        <v>0.10352343984791212</v>
       </c>
     </row>
   </sheetData>
